--- a/election-summary-margins-1900-2024.xlsx
+++ b/election-summary-margins-1900-2024.xlsx
@@ -94,7 +94,7 @@
     <t>Associated Press</t>
   </si>
   <si>
-    <t>Mon, 02 Dec 2024 15:00:00 GMT</t>
+    <t>Thu, 05 Dec 2024 13:31:00 GMT</t>
   </si>
   <si>
     <t>Cook Political</t>
@@ -2071,63 +2071,63 @@
         <v>2024.1</v>
       </c>
       <c r="B3" s="9">
-        <v>76931700</v>
+        <v>77234090</v>
       </c>
       <c r="C3" s="10">
-        <v>74450916</v>
+        <v>74936918</v>
       </c>
       <c r="D3" s="10">
-        <v>777301</v>
+        <v>782089</v>
       </c>
       <c r="E3" s="11">
         <f>SUM(B3:D3)/F3</f>
-        <v>0.988421759171089</v>
+        <v>0.988452255023015</v>
       </c>
       <c r="F3" s="12">
         <f>SUM(B3:D3,G3)</f>
-        <v>153942298</v>
+        <v>154739995</v>
       </c>
       <c r="G3" s="13">
-        <v>1782381</v>
+        <v>1786898</v>
       </c>
       <c r="H3" s="14">
         <f>ABS(B3-C3)</f>
-        <v>2480784</v>
+        <v>2297172</v>
       </c>
       <c r="I3" s="15">
         <f>H3/SUM(B3:C3)</f>
-        <v>0.0163875091179558</v>
+        <v>0.0150959899010461</v>
       </c>
       <c r="J3" s="15">
         <f>I3/2</f>
-        <v>0.0081937545589779</v>
+        <v>0.00754799495052305</v>
       </c>
       <c r="K3" s="15">
         <f>B3/F3</f>
-        <v>0.499743741645327</v>
+        <v>0.499121704120515</v>
       </c>
       <c r="L3" s="15">
         <f>C3/F3</f>
-        <v>0.483628716520784</v>
+        <v>0.484276337219734</v>
       </c>
       <c r="M3" s="15">
         <f>D3/F3</f>
-        <v>0.00504930100497785</v>
+        <v>0.00505421368276508</v>
       </c>
       <c r="N3" s="15">
         <v>0.6375999999999999</v>
       </c>
       <c r="O3" s="14">
         <f>F3/N3</f>
-        <v>241440241.53074</v>
+        <v>242691334.692597</v>
       </c>
       <c r="P3" s="15">
         <f>K3*N3</f>
-        <v>0.31863660967306</v>
+        <v>0.31823999854724</v>
       </c>
       <c r="Q3" s="15">
         <f>L3*N3</f>
-        <v>0.308361669653652</v>
+        <v>0.308774592611302</v>
       </c>
       <c r="R3" t="s" s="16">
         <v>23</v>
@@ -2150,44 +2150,44 @@
         <v>2024</v>
       </c>
       <c r="B4" s="21">
-        <v>77165264</v>
+        <v>77287591</v>
       </c>
       <c r="C4" s="22">
-        <v>74766831</v>
+        <v>75002294</v>
       </c>
       <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(B4:D4)/F4</f>
-        <v>0.981143822658242</v>
+        <v>0.981021158959135</v>
       </c>
       <c r="F4" s="22">
-        <v>154852012</v>
+        <v>155236086</v>
       </c>
       <c r="G4" s="25">
         <f>F4-SUM(B4:D4)</f>
-        <v>2919917</v>
+        <v>2946201</v>
       </c>
       <c r="H4" s="25">
         <f>ABS(B4-C4)</f>
-        <v>2398433</v>
+        <v>2285297</v>
       </c>
       <c r="I4" s="26">
         <f>H4/SUM(B4:C4)</f>
-        <v>0.0157862168622107</v>
+        <v>0.0150062297308846</v>
       </c>
       <c r="J4" s="26">
         <f>I4/2</f>
-        <v>0.00789310843110535</v>
+        <v>0.0075031148654423</v>
       </c>
       <c r="K4" s="26">
         <f>B4/F4</f>
-        <v>0.498316185907872</v>
+        <v>0.497871293920667</v>
       </c>
       <c r="L4" s="26">
         <f>C4/F4</f>
-        <v>0.48282763675037</v>
+        <v>0.483149865038468</v>
       </c>
       <c r="M4" s="26">
         <f>D4/F4</f>
@@ -2200,10 +2200,10 @@
         <v>244666890</v>
       </c>
       <c r="P4" s="27">
-        <v>0.320706439878526</v>
+        <v>0.315889048166673</v>
       </c>
       <c r="Q4" s="27">
-        <v>0.313314033582118</v>
+        <v>0.306548605739011</v>
       </c>
       <c r="R4" t="s" s="29">
         <v>23</v>
